--- a/results/RMR results/gamm_rmr_param_ind.xlsx
+++ b/results/RMR results/gamm_rmr_param_ind.xlsx
@@ -389,16 +389,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>78.2459065636215</v>
+        <v>78.2459065635595</v>
       </c>
       <c r="C2" t="n">
-        <v>4.50289748128642</v>
+        <v>4.50289748128657</v>
       </c>
       <c r="D2" t="n">
-        <v>17.37679058624</v>
+        <v>17.3767905862256</v>
       </c>
       <c r="E2" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000127922839122476</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000127922839151651</v>
       </c>
     </row>
     <row r="3">
@@ -406,16 +406,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>-4.82106688486124</v>
+        <v>-4.82106688480633</v>
       </c>
       <c r="C3" t="n">
-        <v>7.20487466917149</v>
+        <v>7.2048746691706</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.669139590378972</v>
+        <v>-0.669139590371433</v>
       </c>
       <c r="E3" t="n">
-        <v>0.50345616856343</v>
+        <v>0.503456168568238</v>
       </c>
     </row>
     <row r="4">
@@ -423,16 +423,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.37733124433309</v>
+        <v>-1.37733124429381</v>
       </c>
       <c r="C4" t="n">
-        <v>10.0254161518114</v>
+        <v>10.025416151815</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.137383947307188</v>
+        <v>-0.137383947303221</v>
       </c>
       <c r="E4" t="n">
-        <v>0.890736223506896</v>
+        <v>0.890736223510032</v>
       </c>
     </row>
   </sheetData>
